--- a/OJ/Jzxx/hard/2 数字方阵/讲解.xlsx
+++ b/OJ/Jzxx/hard/2 数字方阵/讲解.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16EDEDC8-A9BA-4D4B-8017-F257676F6968}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,6 +132,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -178,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,9 +215,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +267,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,19 +459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>0</v>
       </c>
@@ -465,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -488,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -511,7 +549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -534,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -557,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -580,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -601,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -614,19 +652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M8"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4">
         <v>0</v>
       </c>
@@ -658,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -681,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -704,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -727,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -750,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -773,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -794,19 +832,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3">
         <v>0</v>
       </c>
@@ -853,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -894,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -935,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -976,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1017,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1066,19 +1104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -1110,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1133,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1156,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1179,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1202,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1233,52 +1271,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="7" width="8.875" style="1"/>
+    <col min="8" max="8" width="8.875" style="2"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -1296,12 +1337,12 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -1319,12 +1360,12 @@
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -1342,12 +1383,12 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -1365,12 +1406,12 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -1388,7 +1429,7 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1400,55 +1441,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="7" width="8.875" style="1"/>
+    <col min="8" max="8" width="8.875" style="2"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="1">
@@ -1467,11 +1511,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="1">
@@ -1490,11 +1534,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
         <v>3</v>
       </c>
       <c r="I5" s="1">
@@ -1513,11 +1557,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
         <v>4</v>
       </c>
       <c r="I6" s="1">
@@ -1536,11 +1580,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1">
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
       <c r="I7" s="1">
@@ -1567,19 +1611,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -1611,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1634,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1657,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1680,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1703,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1734,19 +1778,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:U8"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -1796,7 +1840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1840,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1878,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1910,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1936,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1956,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O8" s="2">
         <v>6</v>
       </c>
@@ -1972,12 +2016,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
